--- a/backend/data/newMBTI延伸我.xlsx
+++ b/backend/data/newMBTI延伸我.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Username\Desktop\Course-recommendation-system-main\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="62">
   <si>
     <t>課程名稱</t>
   </si>
@@ -70,9 +75,6 @@
     <t>電影與音樂視覺藝術</t>
   </si>
   <si>
-    <t>電影與音樂視覺藝術實務見習</t>
-  </si>
-  <si>
     <t>音樂與影劇賞析</t>
   </si>
   <si>
@@ -185,17 +187,37 @@
   </si>
   <si>
     <t>ENTJ</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>ENFJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBTI_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -203,8 +225,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,22 +272,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -300,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +373,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,6 +408,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,14 +584,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,250 +608,526 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>0.1656889271842335</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>0.3873330316488717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.38733303164887167</v>
+      </c>
+      <c r="D3" s="2">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>0.3873330316488717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.38733303164887167</v>
+      </c>
+      <c r="D4" s="2">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>0.4132766920519813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.41327669205198131</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0.3830893423999692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.38308934239996922</v>
+      </c>
+      <c r="D6" s="2">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>0.309628482288839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.30962848228883899</v>
+      </c>
+      <c r="D7" s="2">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>0.2701825838622893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.27018258386228933</v>
+      </c>
+      <c r="D8" s="2">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>0.2701825838622893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.27018258386228933</v>
+      </c>
+      <c r="D9" s="2">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2">
+        <v>54</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>0.3589662882905366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.35896628829053662</v>
+      </c>
+      <c r="D10" s="2">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>0.3589662882905366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.35896628829053662</v>
+      </c>
+      <c r="D11" s="2">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2">
+        <v>56</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>0.3410308573510099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.34103085735100991</v>
+      </c>
+      <c r="D12" s="2">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
-        <v>0.3014309018676913</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.30143090186769128</v>
+      </c>
+      <c r="D13" s="2">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="2">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.2702774834048613</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="2">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2">
+        <v>59</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15">
-        <v>0.4055415046435126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.40554150464351257</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>0.2990722807656777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.29907228076567771</v>
+      </c>
+      <c r="D16" s="2">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2">
+        <v>61</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17">
-        <v>0.3923394283793147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.39233942837931468</v>
+      </c>
+      <c r="D17" s="2">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2">
+        <v>62</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>0.2967690170925946</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.29676901709259462</v>
+      </c>
+      <c r="D18" s="2">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2">
+        <v>63</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19">
-        <v>0.3907207734172057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.39072077341720568</v>
+      </c>
+      <c r="D19" s="2">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="2">
+        <v>64</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>0.4070126466676171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.40701264666761711</v>
+      </c>
+      <c r="D20" s="2">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2">
+        <v>65</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21">
-        <v>0.4070126466676171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.40701264666761711</v>
+      </c>
+      <c r="D21" s="2">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2">
+        <v>66</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22">
-        <v>0.4271651621821472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.42716516218214717</v>
+      </c>
+      <c r="D22" s="2">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2">
+        <v>67</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>0.4271651621821472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.42716516218214717</v>
+      </c>
+      <c r="D23" s="2">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2">
+        <v>68</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -809,10 +1135,22 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>0.2928215166887948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.45928409826521699</v>
+      </c>
+      <c r="D24" s="2">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2">
+        <v>69</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -820,54 +1158,114 @@
         <v>51</v>
       </c>
       <c r="C25">
-        <v>0.459284098265217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.49734646732609428</v>
+      </c>
+      <c r="D25" s="2">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="2">
+        <v>70</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>0.4973464673260943</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.49734646732609428</v>
+      </c>
+      <c r="D26" s="2">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2">
+        <v>71</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>0.4973464673260943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.34690601404386823</v>
+      </c>
+      <c r="D27" s="2">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="2">
+        <v>72</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C28">
-        <v>0.3469060140438682</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.28361875761472383</v>
+      </c>
+      <c r="D28" s="2">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="2">
+        <v>73</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>0.2836187576147238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.27511128808826812</v>
+      </c>
+      <c r="D29" s="2">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2">
+        <v>74</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -875,43 +1273,91 @@
         <v>53</v>
       </c>
       <c r="C30">
-        <v>0.2751112880882681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.34676951525221822</v>
+      </c>
+      <c r="D30" s="2">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2">
+        <v>75</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31">
-        <v>0.3467695152522182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.38199878653654978</v>
+      </c>
+      <c r="D31" s="2">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="2">
+        <v>76</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C32">
-        <v>0.3819987865365498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.3281892946888943</v>
+      </c>
+      <c r="D32" s="2">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>0.3281892946888943</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="2">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="2">
+        <v>78</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -919,241 +1365,483 @@
         <v>48</v>
       </c>
       <c r="C34">
-        <v>0.3281892946888943</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.27963483455548233</v>
+      </c>
+      <c r="D34" s="2">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="2">
+        <v>79</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C35">
-        <v>0.2796348345554823</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.31268518701851561</v>
+      </c>
+      <c r="D35" s="2">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="2">
+        <v>80</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36">
-        <v>0.3126851870185156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.31268518459280031</v>
+      </c>
+      <c r="D36" s="2">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="2">
+        <v>81</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C37">
-        <v>0.3126851845928003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.41800533886284802</v>
+      </c>
+      <c r="D37" s="2">
+        <v>82</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="2">
+        <v>82</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C38">
-        <v>0.418005338862848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.2576685849313432</v>
+      </c>
+      <c r="D38" s="2">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39">
-        <v>0.2576685849313432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.40070806912898721</v>
+      </c>
+      <c r="D39" s="2">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40">
-        <v>0.4007080691289872</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.40070806912898721</v>
+      </c>
+      <c r="D40" s="2">
+        <v>85</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="2">
+        <v>85</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C41">
-        <v>0.4007080691289872</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.31944267414546379</v>
+      </c>
+      <c r="D41" s="2">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2">
+        <v>86</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C42">
-        <v>0.3194426741454638</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>0.37477443942807098</v>
+      </c>
+      <c r="D42" s="2">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="2">
+        <v>87</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43">
-        <v>0.374774439428071</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.37477443942807098</v>
+      </c>
+      <c r="D43" s="2">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="2">
+        <v>88</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>0.374774439428071</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.40262643986433111</v>
+      </c>
+      <c r="D44" s="2">
+        <v>89</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="2">
+        <v>89</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C45">
-        <v>0.4026264398643311</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.38594404021360718</v>
+      </c>
+      <c r="D45" s="2">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="2">
+        <v>90</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46">
-        <v>0.3859440402136072</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.38594404021360718</v>
+      </c>
+      <c r="D46" s="2">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="2">
+        <v>91</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>0.3859440402136072</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.33476515369445392</v>
+      </c>
+      <c r="D47" s="2">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="2">
+        <v>92</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>0.3347651536944539</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.38212184801319338</v>
+      </c>
+      <c r="D48" s="2">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="2">
+        <v>93</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C49">
-        <v>0.3821218480131934</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.43921535881283869</v>
+      </c>
+      <c r="D49" s="2">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="2">
+        <v>94</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50">
-        <v>0.4392153588128387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.28754812504997063</v>
+      </c>
+      <c r="D50" s="2">
+        <v>95</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="2">
+        <v>95</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>0.2875481250499706</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.3122909614364669</v>
+      </c>
+      <c r="D51" s="2">
+        <v>96</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="2">
+        <v>96</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C52">
-        <v>0.3122909614364669</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.42605862767668562</v>
+      </c>
+      <c r="D52" s="2">
+        <v>97</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="2">
+        <v>97</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C53">
-        <v>0.4260586276766856</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.32359240854513488</v>
+      </c>
+      <c r="D53" s="2">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="2">
+        <v>98</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C54">
-        <v>0.3235924085451349</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55">
-        <v>0.543065753821262</v>
+        <v>0.54306575382126199</v>
+      </c>
+      <c r="D54" s="2">
+        <v>99</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="2">
+        <v>99</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>